--- a/ipl-2020-21-1210595/delhi capitals vs kings xi punjab 2nd match 1216493/Bowling1.xlsx
+++ b/ipl-2020-21-1210595/delhi capitals vs kings xi punjab 2nd match 1216493/Bowling1.xlsx
@@ -452,177 +452,177 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>45</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>11.25</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>28</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>7.00</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>10</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Axar Patel</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>14</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>3.50</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>11</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v/>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>29</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>9.66</v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
